--- a/app/config/tables/household_member/forms/education/education.xlsx
+++ b/app/config/tables/household_member/forms/education/education.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household_member\forms\education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="10840" windowWidth="23200" windowHeight="14160"/>
+    <workbookView xWindow="14740" yWindow="10839" windowWidth="23197" windowHeight="14164" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -85,9 +90,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -281,12 +283,18 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -417,6 +425,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -711,45 +722,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24">
-      <c r="A2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="24">
+    <row r="3" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -768,102 +780,102 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="34" customHeight="1">
+    <row r="5" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -871,65 +883,65 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1">
+    <row r="7" spans="1:6" ht="42.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -937,9 +949,9 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -947,25 +959,25 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -973,7 +985,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -981,7 +993,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -989,7 +1001,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1016,15 +1028,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.25" customHeight="1">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1035,154 +1047,154 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="16" customHeight="1">
+    <row r="9" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1201,18 +1213,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1220,18 +1232,18 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1247,18 +1259,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+    <row r="5" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1283,15 +1295,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1307,39 +1319,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1371,65 +1383,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>

--- a/app/config/tables/household_member/forms/education/education.xlsx
+++ b/app/config/tables/household_member/forms/education/education.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="10840" windowWidth="23200" windowHeight="14160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>Graduate studies</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>youngest</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>household_owner</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -731,12 +731,12 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -744,12 +744,12 @@
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>

--- a/app/config/tables/household_member/forms/education/education.xlsx
+++ b/app/config/tables/household_member/forms/education/education.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household_member\forms\education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="10840" windowWidth="23200" windowHeight="14160" activeTab="4"/>
+    <workbookView xWindow="14740" yWindow="10839" windowWidth="23197" windowHeight="14164" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -68,9 +73,6 @@
   </si>
   <si>
     <t>table_id</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -289,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -721,42 +723,42 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24">
-      <c r="A2" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="24">
+    <row r="3" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -778,99 +780,99 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="34" customHeight="1">
+    <row r="5" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -878,65 +880,65 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1">
+    <row r="7" spans="1:6" ht="42.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -944,9 +946,9 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -954,25 +956,25 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -980,7 +982,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -988,7 +990,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -996,7 +998,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1019,177 +1021,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.25" customHeight="1">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="16" customHeight="1">
+    <row r="9" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1212,33 +1214,33 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1254,18 +1256,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+    <row r="5" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1286,19 +1288,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1314,39 +1316,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1362,84 +1364,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
